--- a/NEW HR/SIM, JO RITZELL CASTILLO.xlsx
+++ b/NEW HR/SIM, JO RITZELL CASTILLO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\NEW HR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -915,7 +915,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +958,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1022,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1082,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1148,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1211,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1309,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1368,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1433,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1476,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1551,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1737,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1861,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1927,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1983,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2058,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2101,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2167,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2223,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,9 +2669,9 @@
   <dimension ref="A2:K128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A98" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2838,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.4170000000000016</v>
+        <v>9.6670000000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2848,7 +2848,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>5.4170000000000016</v>
+        <v>6.6670000000000016</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4806,15 +4806,19 @@
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>44986</v>
+      </c>
       <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
+      <c r="C125" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G125" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
@@ -4822,10 +4826,16 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="40">
+        <v>45017</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
+      <c r="D126" s="39">
+        <v>1</v>
+      </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
       <c r="G126" s="13" t="str">
@@ -4835,7 +4845,9 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="49">
+        <v>45027</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>

--- a/NEW HR/SIM, JO RITZELL CASTILLO.xlsx
+++ b/NEW HR/SIM, JO RITZELL CASTILLO.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>2/14,15/2023</t>
+  </si>
+  <si>
+    <t>6/12-14/2023</t>
   </si>
 </sst>
 </file>
@@ -915,7 +918,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -958,7 +961,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1022,7 +1025,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1085,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1148,7 +1151,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1211,7 +1214,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1312,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1368,7 +1371,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1433,7 +1436,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1476,7 +1479,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,7 +1554,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1737,7 +1740,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1806,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,7 +1864,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1927,7 +1930,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1983,7 +1986,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2061,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2101,7 +2104,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2167,7 +2170,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2223,7 +2226,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2319,7 +2322,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2666,12 +2669,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A109" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A120" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomLeft" activeCell="K129" sqref="K129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,7 +2841,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>9.6670000000000016</v>
+        <v>9.1670000000000016</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2848,7 +2851,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>6.6670000000000016</v>
+        <v>9.1670000000000016</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4832,15 +4835,17 @@
       <c r="B126" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C126" s="13"/>
+      <c r="C126" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D126" s="39">
         <v>1</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G126" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
@@ -4850,15 +4855,19 @@
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>45047</v>
+      </c>
       <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
+      <c r="C127" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D127" s="39"/>
       <c r="E127" s="9"/>
       <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G127" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H127" s="39"/>
       <c r="I127" s="9"/>
@@ -4866,10 +4875,16 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="15"/>
+      <c r="A128" s="41">
+        <v>45078</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
+      <c r="D128" s="43">
+        <v>3</v>
+      </c>
       <c r="E128" s="9"/>
       <c r="F128" s="15"/>
       <c r="G128" s="42" t="str">
@@ -4879,7 +4894,377 @@
       <c r="H128" s="43"/>
       <c r="I128" s="9"/>
       <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="K128" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="39"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="41"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="42"/>
+      <c r="D151" s="43"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="43"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
